--- a/fermentation_insights/TRY_results/spearman_TAL_sugarcane.xlsx
+++ b/fermentation_insights/TRY_results/spearman_TAL_sugarcane.xlsx
@@ -585,100 +585,100 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.2112385632385632</v>
+        <v>-0.2817007257007257</v>
       </c>
       <c r="D2">
-        <v>-0.1647463287463287</v>
+        <v>0.05257139257139257</v>
       </c>
       <c r="E2">
-        <v>-0.1197925917925918</v>
+        <v>-0.04202497802497802</v>
       </c>
       <c r="F2">
-        <v>0.3406443646443647</v>
+        <v>0.1445382725382725</v>
       </c>
       <c r="G2">
-        <v>-0.02465889665889666</v>
+        <v>-0.0154034434034434</v>
       </c>
       <c r="H2">
-        <v>-0.3588213348213348</v>
+        <v>-0.4416126696126696</v>
       </c>
       <c r="I2">
-        <v>0.00599034599034599</v>
+        <v>-0.003595839595839596</v>
       </c>
       <c r="J2">
-        <v>0.008572412572412572</v>
+        <v>0.004688824688824689</v>
       </c>
       <c r="K2">
-        <v>-0.06602413802413802</v>
+        <v>-0.06399102399102399</v>
       </c>
       <c r="L2">
-        <v>0.02067657267657268</v>
+        <v>0.02286242286242286</v>
       </c>
       <c r="M2">
-        <v>-0.04109510909510909</v>
+        <v>-0.01655848055848056</v>
       </c>
       <c r="N2">
-        <v>-0.08592618192618193</v>
+        <v>0.01697466497466497</v>
       </c>
       <c r="O2">
-        <v>0.1531396531396531</v>
+        <v>0.1952686112686113</v>
       </c>
       <c r="P2">
-        <v>0.04707477507477507</v>
+        <v>0.04456895656895657</v>
       </c>
       <c r="Q2">
-        <v>0.1411425331425331</v>
+        <v>0.1757278517278517</v>
       </c>
       <c r="R2">
-        <v>-0.2509386709386709</v>
+        <v>-0.08429115629115629</v>
       </c>
       <c r="S2">
-        <v>0.09044047844047844</v>
+        <v>0.04895656895656895</v>
       </c>
       <c r="T2">
-        <v>-0.01448697848697849</v>
+        <v>0.01681512481512482</v>
       </c>
       <c r="U2">
-        <v>-0.675979167979168</v>
+        <v>-0.7271149991149991</v>
       </c>
       <c r="V2">
-        <v>-0.002041622041622042</v>
+        <v>-9.716409716409717E-05</v>
       </c>
       <c r="W2">
-        <v>0.02489425289425289</v>
+        <v>0.02473743673743674</v>
       </c>
       <c r="X2">
-        <v>0.01444107844107844</v>
+        <v>0.104996648996649</v>
       </c>
       <c r="Y2">
-        <v>0.0590967710967711</v>
+        <v>0.09646760446760447</v>
       </c>
       <c r="Z2">
-        <v>-0.3274271554271554</v>
+        <v>-0.1428149148149148</v>
       </c>
       <c r="AA2">
-        <v>-0.1020779220779221</v>
+        <v>0.1021913341913342</v>
       </c>
       <c r="AB2">
-        <v>0.006065850065850066</v>
+        <v>0.001633285633285633</v>
       </c>
       <c r="AC2">
-        <v>0.04408306408306408</v>
+        <v>0.03694629694629695</v>
       </c>
       <c r="AD2">
-        <v>-0.01200144000144</v>
+        <v>-0.007143319143319143</v>
       </c>
       <c r="AE2">
-        <v>0.03977197577197577</v>
+        <v>0.04044757644757645</v>
       </c>
       <c r="AF2">
-        <v>-0.03408627408627408</v>
+        <v>-0.01763645363645364</v>
       </c>
       <c r="AG2">
-        <v>-0.01845756645756646</v>
+        <v>-0.03991313191313191</v>
       </c>
       <c r="AH2">
-        <v>0.04195324195324195</v>
+        <v>0.04281689481689482</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2112385632385632</v>
+        <v>-0.2817007257007257</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.02145576945576946</v>
+        <v>-0.0173031773031773</v>
       </c>
       <c r="E3">
-        <v>0.1513020193020193</v>
+        <v>0.2528460728460729</v>
       </c>
       <c r="F3">
-        <v>0.1292117372117372</v>
+        <v>0.09346982146982147</v>
       </c>
       <c r="G3">
-        <v>-0.02873926073926074</v>
+        <v>-0.02766349566349566</v>
       </c>
       <c r="H3">
-        <v>-0.3992958872958873</v>
+        <v>-0.4008992208992209</v>
       </c>
       <c r="I3">
-        <v>0.3475542955542956</v>
+        <v>0.3493060573060573</v>
       </c>
       <c r="J3">
-        <v>-0.05145459945459945</v>
+        <v>-0.05224121224121224</v>
       </c>
       <c r="K3">
-        <v>-0.01044322644322644</v>
+        <v>-0.0133013053013053</v>
       </c>
       <c r="L3">
-        <v>0.02246113046113046</v>
+        <v>0.01894404694404694</v>
       </c>
       <c r="M3">
-        <v>0.009446229446229446</v>
+        <v>0.01283809283809284</v>
       </c>
       <c r="N3">
-        <v>-0.0290992010992011</v>
+        <v>-0.03379013779013779</v>
       </c>
       <c r="O3">
-        <v>-0.147984567984568</v>
+        <v>-0.1520685560685561</v>
       </c>
       <c r="P3">
-        <v>0.03446554646554646</v>
+        <v>0.03240965640965641</v>
       </c>
       <c r="Q3">
-        <v>0.2692807972807973</v>
+        <v>0.269995961995962</v>
       </c>
       <c r="R3">
-        <v>-0.04238509838509839</v>
+        <v>-0.04864273264273265</v>
       </c>
       <c r="S3">
-        <v>-0.06073530073530074</v>
+        <v>-0.05807602607602608</v>
       </c>
       <c r="T3">
-        <v>-0.02405618405618406</v>
+        <v>-0.0225998745998746</v>
       </c>
       <c r="U3">
-        <v>0.5435262995262995</v>
+        <v>0.5503623343623344</v>
       </c>
       <c r="V3">
-        <v>0.04067880467880468</v>
+        <v>0.04182224982224982</v>
       </c>
       <c r="W3">
-        <v>-0.02907400107400107</v>
+        <v>-0.02967748167748168</v>
       </c>
       <c r="X3">
-        <v>-0.241000957000957</v>
+        <v>-0.2783822663822664</v>
       </c>
       <c r="Y3">
-        <v>0.04021356421356422</v>
+        <v>0.02698674298674299</v>
       </c>
       <c r="Z3">
-        <v>-0.1342953622953623</v>
+        <v>-0.103003819003819</v>
       </c>
       <c r="AA3">
-        <v>-0.181998241998242</v>
+        <v>-0.1371112011112011</v>
       </c>
       <c r="AB3">
-        <v>-0.008984468984468984</v>
+        <v>-0.00620976620976621</v>
       </c>
       <c r="AC3">
-        <v>-0.04045274845274845</v>
+        <v>-0.04246791046791046</v>
       </c>
       <c r="AD3">
-        <v>-0.004925260925260925</v>
+        <v>-0.0112998712998713</v>
       </c>
       <c r="AE3">
-        <v>0.01089202689202689</v>
+        <v>0.01282329682329682</v>
       </c>
       <c r="AF3">
-        <v>-0.006187878187878188</v>
+        <v>0.0007199167199167199</v>
       </c>
       <c r="AG3">
-        <v>-0.1581067101067101</v>
+        <v>-0.1628555828555829</v>
       </c>
       <c r="AH3">
-        <v>-0.2352097032097032</v>
+        <v>-0.2326357486357486</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1647463287463287</v>
+        <v>0.05257139257139257</v>
       </c>
       <c r="C4">
-        <v>-0.02145576945576946</v>
+        <v>-0.0173031773031773</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.09257898857898858</v>
+        <v>0.1361204681204681</v>
       </c>
       <c r="F4">
-        <v>-0.1680892080892081</v>
+        <v>-0.1514234954234954</v>
       </c>
       <c r="G4">
-        <v>0.009820185820185821</v>
+        <v>0.01123061923061923</v>
       </c>
       <c r="H4">
-        <v>-0.1976998976998977</v>
+        <v>-0.1895000015000015</v>
       </c>
       <c r="I4">
-        <v>-0.0786023946023946</v>
+        <v>-0.08492422892422892</v>
       </c>
       <c r="J4">
-        <v>0.03299404499404499</v>
+        <v>0.03499015099015099</v>
       </c>
       <c r="K4">
-        <v>0.0286016446016446</v>
+        <v>0.02902214902214902</v>
       </c>
       <c r="L4">
-        <v>0.02462175662175662</v>
+        <v>0.02673463473463474</v>
       </c>
       <c r="M4">
-        <v>0.1515772875772876</v>
+        <v>0.1545353625353625</v>
       </c>
       <c r="N4">
-        <v>0.6598895878895878</v>
+        <v>0.6647968367968368</v>
       </c>
       <c r="O4">
-        <v>0.02688095088095088</v>
+        <v>0.01362110562110562</v>
       </c>
       <c r="P4">
-        <v>0.01818323418323418</v>
+        <v>0.01666909666909667</v>
       </c>
       <c r="Q4">
-        <v>0.05277304077304077</v>
+        <v>0.04799162399162399</v>
       </c>
       <c r="R4">
-        <v>0.4378469698469699</v>
+        <v>0.3993109113109113</v>
       </c>
       <c r="S4">
-        <v>0.4004467844467844</v>
+        <v>0.4551888831888832</v>
       </c>
       <c r="T4">
-        <v>0.005120465120465121</v>
+        <v>-0.0002176322176322176</v>
       </c>
       <c r="U4">
-        <v>0.03305319305319306</v>
+        <v>0.03431518631518631</v>
       </c>
       <c r="V4">
-        <v>-0.01981291981291981</v>
+        <v>-0.02395622395622396</v>
       </c>
       <c r="W4">
-        <v>0.001471621471621472</v>
+        <v>0.0001688401688401688</v>
       </c>
       <c r="X4">
-        <v>0.08558014958014958</v>
+        <v>0.04455173655173655</v>
       </c>
       <c r="Y4">
-        <v>0.04123361323361324</v>
+        <v>0.03310498510498511</v>
       </c>
       <c r="Z4">
-        <v>0.165986985986986</v>
+        <v>0.1531440091440091</v>
       </c>
       <c r="AA4">
-        <v>0.1071544431544432</v>
+        <v>0.08678411078411079</v>
       </c>
       <c r="AB4">
-        <v>0.1581131421131421</v>
+        <v>0.1736385536385536</v>
       </c>
       <c r="AC4">
-        <v>-0.004323172323172323</v>
+        <v>-0.004728892728892729</v>
       </c>
       <c r="AD4">
-        <v>-0.007453639453639454</v>
+        <v>-0.01105527505527506</v>
       </c>
       <c r="AE4">
-        <v>-0.008544212544212544</v>
+        <v>-0.008006720006720007</v>
       </c>
       <c r="AF4">
-        <v>0.03013734613734614</v>
+        <v>0.02944595344595344</v>
       </c>
       <c r="AG4">
-        <v>-0.02621937821937822</v>
+        <v>-0.02298943098943099</v>
       </c>
       <c r="AH4">
-        <v>0.0376952656952657</v>
+        <v>0.0484985884985885</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,103 +894,103 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1197925917925918</v>
+        <v>-0.04202497802497802</v>
       </c>
       <c r="C5">
-        <v>0.1513020193020193</v>
+        <v>0.2528460728460729</v>
       </c>
       <c r="D5">
-        <v>0.09257898857898858</v>
+        <v>0.1361204681204681</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.3694513534513534</v>
+        <v>-0.4101584781584782</v>
       </c>
       <c r="G5">
-        <v>0.04586470586470587</v>
+        <v>0.04766073566073566</v>
       </c>
       <c r="H5">
-        <v>-0.1404728004728005</v>
+        <v>-0.1570646290646291</v>
       </c>
       <c r="I5">
-        <v>0.1073544833544834</v>
+        <v>0.1177532017532018</v>
       </c>
       <c r="J5">
-        <v>-0.01023392223392223</v>
+        <v>-0.01477141477141477</v>
       </c>
       <c r="K5">
-        <v>0.0159009519009519</v>
+        <v>0.02454226854226854</v>
       </c>
       <c r="L5">
-        <v>-0.02717726717726718</v>
+        <v>-0.0262951822951823</v>
       </c>
       <c r="M5">
-        <v>0.06396708396708396</v>
+        <v>0.0628992268992269</v>
       </c>
       <c r="N5">
-        <v>0.02259309459309459</v>
+        <v>0.04018048018048018</v>
       </c>
       <c r="O5">
-        <v>-0.03268823668823669</v>
+        <v>-0.04079068079068079</v>
       </c>
       <c r="P5">
-        <v>-0.01075811875811876</v>
+        <v>-0.004039000039000039</v>
       </c>
       <c r="Q5">
-        <v>0.103993507993508</v>
+        <v>0.112987960987961</v>
       </c>
       <c r="R5">
-        <v>-0.03366056166056166</v>
+        <v>-0.01317789717789718</v>
       </c>
       <c r="S5">
-        <v>0.06141680541680541</v>
+        <v>0.0565994725994726</v>
       </c>
       <c r="T5">
-        <v>0.04547744147744148</v>
+        <v>0.05120355920355921</v>
       </c>
       <c r="U5">
-        <v>0.3123659043659044</v>
+        <v>0.3604259884259884</v>
       </c>
       <c r="V5">
-        <v>-0.008567936567936568</v>
+        <v>-0.01075467475467476</v>
       </c>
       <c r="W5">
-        <v>-0.0002243642243642244</v>
+        <v>-0.005806889806889807</v>
       </c>
       <c r="X5">
-        <v>-0.1803351843351843</v>
+        <v>-0.1226560106560107</v>
       </c>
       <c r="Y5">
-        <v>0.03067042267042267</v>
+        <v>0.07523895923895924</v>
       </c>
       <c r="Z5">
-        <v>0.321943005943006</v>
+        <v>0.3815731055731056</v>
       </c>
       <c r="AA5">
-        <v>0.6185777825777826</v>
+        <v>0.6358050598050599</v>
       </c>
       <c r="AB5">
-        <v>0.125059385059385</v>
+        <v>0.1242181002181002</v>
       </c>
       <c r="AC5">
-        <v>-0.04583594183594183</v>
+        <v>-0.05361608961608962</v>
       </c>
       <c r="AD5">
-        <v>-0.05159435159435159</v>
+        <v>-0.04624599424599424</v>
       </c>
       <c r="AE5">
-        <v>0.03767782967782968</v>
+        <v>0.03344684144684144</v>
       </c>
       <c r="AF5">
-        <v>0.08393147993147994</v>
+        <v>0.08044727644727645</v>
       </c>
       <c r="AG5">
-        <v>-0.1277531597531598</v>
+        <v>-0.1321237081237081</v>
       </c>
       <c r="AH5">
-        <v>-0.02265836265836266</v>
+        <v>-0.0252031332031332</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3406443646443647</v>
+        <v>0.1445382725382725</v>
       </c>
       <c r="C6">
-        <v>0.1292117372117372</v>
+        <v>0.09346982146982147</v>
       </c>
       <c r="D6">
-        <v>-0.1680892080892081</v>
+        <v>-0.1514234954234954</v>
       </c>
       <c r="E6">
-        <v>-0.3694513534513534</v>
+        <v>-0.4101584781584782</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.07137742737742737</v>
+        <v>-0.07225510825510825</v>
       </c>
       <c r="H6">
-        <v>-0.03480623880623881</v>
+        <v>-0.03410923010923011</v>
       </c>
       <c r="I6">
-        <v>-0.002092082092082092</v>
+        <v>-0.003636807636807637</v>
       </c>
       <c r="J6">
-        <v>-0.02538721338721339</v>
+        <v>-0.02678853878853879</v>
       </c>
       <c r="K6">
-        <v>-0.0009896529896529897</v>
+        <v>-0.001848433848433848</v>
       </c>
       <c r="L6">
-        <v>0.0146005586005586</v>
+        <v>0.0125998085998086</v>
       </c>
       <c r="M6">
-        <v>-0.01436594636594637</v>
+        <v>-0.01295334095334095</v>
       </c>
       <c r="N6">
-        <v>0.005728493728493728</v>
+        <v>0.005350997350997351</v>
       </c>
       <c r="O6">
-        <v>-0.02497557697557698</v>
+        <v>-0.02873845673845674</v>
       </c>
       <c r="P6">
-        <v>0.03254018054018054</v>
+        <v>0.03214620814620815</v>
       </c>
       <c r="Q6">
-        <v>-0.03243141243141243</v>
+        <v>-0.03561077961077961</v>
       </c>
       <c r="R6">
-        <v>-0.06313550713550714</v>
+        <v>-0.06237192237192237</v>
       </c>
       <c r="S6">
-        <v>-0.0206940206940207</v>
+        <v>-0.02071066471066471</v>
       </c>
       <c r="T6">
-        <v>-0.05867089067089067</v>
+        <v>-0.05653025653025653</v>
       </c>
       <c r="U6">
-        <v>-0.008946728946728946</v>
+        <v>-0.008386832386832388</v>
       </c>
       <c r="V6">
-        <v>0.007513891513891514</v>
+        <v>0.006750594750594751</v>
       </c>
       <c r="W6">
-        <v>0.01218283218283218</v>
+        <v>0.01134844734844735</v>
       </c>
       <c r="X6">
-        <v>0.03311687711687712</v>
+        <v>0.02104542904542905</v>
       </c>
       <c r="Y6">
-        <v>-0.01994311994311994</v>
+        <v>-0.02202242202242202</v>
       </c>
       <c r="Z6">
-        <v>-0.9656621336621337</v>
+        <v>-0.9655687375687376</v>
       </c>
       <c r="AA6">
-        <v>-0.08057345657345658</v>
+        <v>-0.04156091356091356</v>
       </c>
       <c r="AB6">
-        <v>0.01068902268902269</v>
+        <v>0.01277661677661678</v>
       </c>
       <c r="AC6">
-        <v>0.2422818382818383</v>
+        <v>0.2545671385671386</v>
       </c>
       <c r="AD6">
-        <v>0.01283166083166083</v>
+        <v>0.01218318018318018</v>
       </c>
       <c r="AE6">
-        <v>0.0005823125823125824</v>
+        <v>-0.0004410964410964411</v>
       </c>
       <c r="AF6">
-        <v>-0.03704323304323304</v>
+        <v>-0.03434663834663835</v>
       </c>
       <c r="AG6">
-        <v>0.01073601473601474</v>
+        <v>0.009173217173217172</v>
       </c>
       <c r="AH6">
-        <v>-0.02801662001662002</v>
+        <v>-0.02698980298980299</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,19 +1102,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.02465889665889666</v>
+        <v>-0.0154034434034434</v>
       </c>
       <c r="C7">
-        <v>-0.02873926073926074</v>
+        <v>-0.02766349566349566</v>
       </c>
       <c r="D7">
-        <v>0.009820185820185821</v>
+        <v>0.01123061923061923</v>
       </c>
       <c r="E7">
-        <v>0.04586470586470587</v>
+        <v>0.04766073566073566</v>
       </c>
       <c r="F7">
-        <v>-0.07137742737742737</v>
+        <v>-0.07225510825510825</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1206,19 +1206,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3588213348213348</v>
+        <v>-0.4416126696126696</v>
       </c>
       <c r="C8">
-        <v>-0.3992958872958873</v>
+        <v>-0.4008992208992209</v>
       </c>
       <c r="D8">
-        <v>-0.1976998976998977</v>
+        <v>-0.1895000015000015</v>
       </c>
       <c r="E8">
-        <v>-0.1404728004728005</v>
+        <v>-0.1570646290646291</v>
       </c>
       <c r="F8">
-        <v>-0.03480623880623881</v>
+        <v>-0.03410923010923011</v>
       </c>
       <c r="G8">
         <v>0.007067527067527068</v>
@@ -1310,19 +1310,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00599034599034599</v>
+        <v>-0.003595839595839596</v>
       </c>
       <c r="C9">
-        <v>0.3475542955542956</v>
+        <v>0.3493060573060573</v>
       </c>
       <c r="D9">
-        <v>-0.0786023946023946</v>
+        <v>-0.08492422892422892</v>
       </c>
       <c r="E9">
-        <v>0.1073544833544834</v>
+        <v>0.1177532017532018</v>
       </c>
       <c r="F9">
-        <v>-0.002092082092082092</v>
+        <v>-0.003636807636807637</v>
       </c>
       <c r="G9">
         <v>0.0009671049671049671</v>
@@ -1414,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.008572412572412572</v>
+        <v>0.004688824688824689</v>
       </c>
       <c r="C10">
-        <v>-0.05145459945459945</v>
+        <v>-0.05224121224121224</v>
       </c>
       <c r="D10">
-        <v>0.03299404499404499</v>
+        <v>0.03499015099015099</v>
       </c>
       <c r="E10">
-        <v>-0.01023392223392223</v>
+        <v>-0.01477141477141477</v>
       </c>
       <c r="F10">
-        <v>-0.02538721338721339</v>
+        <v>-0.02678853878853879</v>
       </c>
       <c r="G10">
         <v>0.00234015834015834</v>
@@ -1518,19 +1518,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.06602413802413802</v>
+        <v>-0.06399102399102399</v>
       </c>
       <c r="C11">
-        <v>-0.01044322644322644</v>
+        <v>-0.0133013053013053</v>
       </c>
       <c r="D11">
-        <v>0.0286016446016446</v>
+        <v>0.02902214902214902</v>
       </c>
       <c r="E11">
-        <v>0.0159009519009519</v>
+        <v>0.02454226854226854</v>
       </c>
       <c r="F11">
-        <v>-0.0009896529896529897</v>
+        <v>-0.001848433848433848</v>
       </c>
       <c r="G11">
         <v>0.01380907380907381</v>
@@ -1622,19 +1622,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02067657267657268</v>
+        <v>0.02286242286242286</v>
       </c>
       <c r="C12">
-        <v>0.02246113046113046</v>
+        <v>0.01894404694404694</v>
       </c>
       <c r="D12">
-        <v>0.02462175662175662</v>
+        <v>0.02673463473463474</v>
       </c>
       <c r="E12">
-        <v>-0.02717726717726718</v>
+        <v>-0.0262951822951823</v>
       </c>
       <c r="F12">
-        <v>0.0146005586005586</v>
+        <v>0.0125998085998086</v>
       </c>
       <c r="G12">
         <v>0.04491608091608092</v>
@@ -1726,19 +1726,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.04109510909510909</v>
+        <v>-0.01655848055848056</v>
       </c>
       <c r="C13">
-        <v>0.009446229446229446</v>
+        <v>0.01283809283809284</v>
       </c>
       <c r="D13">
-        <v>0.1515772875772876</v>
+        <v>0.1545353625353625</v>
       </c>
       <c r="E13">
-        <v>0.06396708396708396</v>
+        <v>0.0628992268992269</v>
       </c>
       <c r="F13">
-        <v>-0.01436594636594637</v>
+        <v>-0.01295334095334095</v>
       </c>
       <c r="G13">
         <v>-0.04308007908007908</v>
@@ -1830,19 +1830,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.08592618192618193</v>
+        <v>0.01697466497466497</v>
       </c>
       <c r="C14">
-        <v>-0.0290992010992011</v>
+        <v>-0.03379013779013779</v>
       </c>
       <c r="D14">
-        <v>0.6598895878895878</v>
+        <v>0.6647968367968368</v>
       </c>
       <c r="E14">
-        <v>0.02259309459309459</v>
+        <v>0.04018048018048018</v>
       </c>
       <c r="F14">
-        <v>0.005728493728493728</v>
+        <v>0.005350997350997351</v>
       </c>
       <c r="G14">
         <v>0.01511738711738712</v>
@@ -1934,19 +1934,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1531396531396531</v>
+        <v>0.1952686112686113</v>
       </c>
       <c r="C15">
-        <v>-0.147984567984568</v>
+        <v>-0.1520685560685561</v>
       </c>
       <c r="D15">
-        <v>0.02688095088095088</v>
+        <v>0.01362110562110562</v>
       </c>
       <c r="E15">
-        <v>-0.03268823668823669</v>
+        <v>-0.04079068079068079</v>
       </c>
       <c r="F15">
-        <v>-0.02497557697557698</v>
+        <v>-0.02873845673845674</v>
       </c>
       <c r="G15">
         <v>-0.01886572286572287</v>
@@ -2038,19 +2038,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04707477507477507</v>
+        <v>0.04456895656895657</v>
       </c>
       <c r="C16">
-        <v>0.03446554646554646</v>
+        <v>0.03240965640965641</v>
       </c>
       <c r="D16">
-        <v>0.01818323418323418</v>
+        <v>0.01666909666909667</v>
       </c>
       <c r="E16">
-        <v>-0.01075811875811876</v>
+        <v>-0.004039000039000039</v>
       </c>
       <c r="F16">
-        <v>0.03254018054018054</v>
+        <v>0.03214620814620815</v>
       </c>
       <c r="G16">
         <v>0.01828563028563028</v>
@@ -2142,19 +2142,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1411425331425331</v>
+        <v>0.1757278517278517</v>
       </c>
       <c r="C17">
-        <v>0.2692807972807973</v>
+        <v>0.269995961995962</v>
       </c>
       <c r="D17">
-        <v>0.05277304077304077</v>
+        <v>0.04799162399162399</v>
       </c>
       <c r="E17">
-        <v>0.103993507993508</v>
+        <v>0.112987960987961</v>
       </c>
       <c r="F17">
-        <v>-0.03243141243141243</v>
+        <v>-0.03561077961077961</v>
       </c>
       <c r="G17">
         <v>-0.0411973371973372</v>
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.2509386709386709</v>
+        <v>-0.08429115629115629</v>
       </c>
       <c r="C18">
-        <v>-0.04238509838509839</v>
+        <v>-0.04864273264273265</v>
       </c>
       <c r="D18">
-        <v>0.4378469698469699</v>
+        <v>0.3993109113109113</v>
       </c>
       <c r="E18">
-        <v>-0.03366056166056166</v>
+        <v>-0.01317789717789718</v>
       </c>
       <c r="F18">
-        <v>-0.06313550713550714</v>
+        <v>-0.06237192237192237</v>
       </c>
       <c r="G18">
         <v>0.01486673086673087</v>
@@ -2350,19 +2350,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09044047844047844</v>
+        <v>0.04895656895656895</v>
       </c>
       <c r="C19">
-        <v>-0.06073530073530074</v>
+        <v>-0.05807602607602608</v>
       </c>
       <c r="D19">
-        <v>0.4004467844467844</v>
+        <v>0.4551888831888832</v>
       </c>
       <c r="E19">
-        <v>0.06141680541680541</v>
+        <v>0.0565994725994726</v>
       </c>
       <c r="F19">
-        <v>-0.0206940206940207</v>
+        <v>-0.02071066471066471</v>
       </c>
       <c r="G19">
         <v>0.02354589554589554</v>
@@ -2454,19 +2454,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.01448697848697849</v>
+        <v>0.01681512481512482</v>
       </c>
       <c r="C20">
-        <v>-0.02405618405618406</v>
+        <v>-0.0225998745998746</v>
       </c>
       <c r="D20">
-        <v>0.005120465120465121</v>
+        <v>-0.0002176322176322176</v>
       </c>
       <c r="E20">
-        <v>0.04547744147744148</v>
+        <v>0.05120355920355921</v>
       </c>
       <c r="F20">
-        <v>-0.05867089067089067</v>
+        <v>-0.05653025653025653</v>
       </c>
       <c r="G20">
         <v>0.06232009432009432</v>
@@ -2558,19 +2558,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.675979167979168</v>
+        <v>-0.7271149991149991</v>
       </c>
       <c r="C21">
-        <v>0.5435262995262995</v>
+        <v>0.5503623343623344</v>
       </c>
       <c r="D21">
-        <v>0.03305319305319306</v>
+        <v>0.03431518631518631</v>
       </c>
       <c r="E21">
-        <v>0.3123659043659044</v>
+        <v>0.3604259884259884</v>
       </c>
       <c r="F21">
-        <v>-0.008946728946728946</v>
+        <v>-0.008386832386832388</v>
       </c>
       <c r="G21">
         <v>0.006152334152334152</v>
@@ -2662,19 +2662,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.002041622041622042</v>
+        <v>-9.716409716409717E-05</v>
       </c>
       <c r="C22">
-        <v>0.04067880467880468</v>
+        <v>0.04182224982224982</v>
       </c>
       <c r="D22">
-        <v>-0.01981291981291981</v>
+        <v>-0.02395622395622396</v>
       </c>
       <c r="E22">
-        <v>-0.008567936567936568</v>
+        <v>-0.01075467475467476</v>
       </c>
       <c r="F22">
-        <v>0.007513891513891514</v>
+        <v>0.006750594750594751</v>
       </c>
       <c r="G22">
         <v>-0.0837004677004677</v>
@@ -2766,19 +2766,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02489425289425289</v>
+        <v>0.02473743673743674</v>
       </c>
       <c r="C23">
-        <v>-0.02907400107400107</v>
+        <v>-0.02967748167748168</v>
       </c>
       <c r="D23">
-        <v>0.001471621471621472</v>
+        <v>0.0001688401688401688</v>
       </c>
       <c r="E23">
-        <v>-0.0002243642243642244</v>
+        <v>-0.005806889806889807</v>
       </c>
       <c r="F23">
-        <v>0.01218283218283218</v>
+        <v>0.01134844734844735</v>
       </c>
       <c r="G23">
         <v>0.01762546162546163</v>
@@ -2870,19 +2870,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01444107844107844</v>
+        <v>0.104996648996649</v>
       </c>
       <c r="C24">
-        <v>-0.241000957000957</v>
+        <v>-0.2783822663822664</v>
       </c>
       <c r="D24">
-        <v>0.08558014958014958</v>
+        <v>0.04455173655173655</v>
       </c>
       <c r="E24">
-        <v>-0.1803351843351843</v>
+        <v>-0.1226560106560107</v>
       </c>
       <c r="F24">
-        <v>0.03311687711687712</v>
+        <v>0.02104542904542905</v>
       </c>
       <c r="G24">
         <v>-0.008087024087024088</v>
@@ -2974,19 +2974,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0590967710967711</v>
+        <v>0.09646760446760447</v>
       </c>
       <c r="C25">
-        <v>0.04021356421356422</v>
+        <v>0.02698674298674299</v>
       </c>
       <c r="D25">
-        <v>0.04123361323361324</v>
+        <v>0.03310498510498511</v>
       </c>
       <c r="E25">
-        <v>0.03067042267042267</v>
+        <v>0.07523895923895924</v>
       </c>
       <c r="F25">
-        <v>-0.01994311994311994</v>
+        <v>-0.02202242202242202</v>
       </c>
       <c r="G25">
         <v>0.04504647304647304</v>
@@ -3078,19 +3078,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3274271554271554</v>
+        <v>-0.1428149148149148</v>
       </c>
       <c r="C26">
-        <v>-0.1342953622953623</v>
+        <v>-0.103003819003819</v>
       </c>
       <c r="D26">
-        <v>0.165986985986986</v>
+        <v>0.1531440091440091</v>
       </c>
       <c r="E26">
-        <v>0.321943005943006</v>
+        <v>0.3815731055731056</v>
       </c>
       <c r="F26">
-        <v>-0.9656621336621337</v>
+        <v>-0.9655687375687376</v>
       </c>
       <c r="G26">
         <v>0.06554629754629755</v>
@@ -3182,19 +3182,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1020779220779221</v>
+        <v>0.1021913341913342</v>
       </c>
       <c r="C27">
-        <v>-0.181998241998242</v>
+        <v>-0.1371112011112011</v>
       </c>
       <c r="D27">
-        <v>0.1071544431544432</v>
+        <v>0.08678411078411079</v>
       </c>
       <c r="E27">
-        <v>0.6185777825777826</v>
+        <v>0.6358050598050599</v>
       </c>
       <c r="F27">
-        <v>-0.08057345657345658</v>
+        <v>-0.04156091356091356</v>
       </c>
       <c r="G27">
         <v>-0.004333744333744334</v>
@@ -3286,19 +3286,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.006065850065850066</v>
+        <v>0.001633285633285633</v>
       </c>
       <c r="C28">
-        <v>-0.008984468984468984</v>
+        <v>-0.00620976620976621</v>
       </c>
       <c r="D28">
-        <v>0.1581131421131421</v>
+        <v>0.1736385536385536</v>
       </c>
       <c r="E28">
-        <v>0.125059385059385</v>
+        <v>0.1242181002181002</v>
       </c>
       <c r="F28">
-        <v>0.01068902268902269</v>
+        <v>0.01277661677661678</v>
       </c>
       <c r="G28">
         <v>0.03506233106233106</v>
@@ -3390,19 +3390,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.04408306408306408</v>
+        <v>0.03694629694629695</v>
       </c>
       <c r="C29">
-        <v>-0.04045274845274845</v>
+        <v>-0.04246791046791046</v>
       </c>
       <c r="D29">
-        <v>-0.004323172323172323</v>
+        <v>-0.004728892728892729</v>
       </c>
       <c r="E29">
-        <v>-0.04583594183594183</v>
+        <v>-0.05361608961608962</v>
       </c>
       <c r="F29">
-        <v>0.2422818382818383</v>
+        <v>0.2545671385671386</v>
       </c>
       <c r="G29">
         <v>-0.04510796110796111</v>
@@ -3494,19 +3494,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.01200144000144</v>
+        <v>-0.007143319143319143</v>
       </c>
       <c r="C30">
-        <v>-0.004925260925260925</v>
+        <v>-0.0112998712998713</v>
       </c>
       <c r="D30">
-        <v>-0.007453639453639454</v>
+        <v>-0.01105527505527506</v>
       </c>
       <c r="E30">
-        <v>-0.05159435159435159</v>
+        <v>-0.04624599424599424</v>
       </c>
       <c r="F30">
-        <v>0.01283166083166083</v>
+        <v>0.01218318018318018</v>
       </c>
       <c r="G30">
         <v>0.009766245766245766</v>
@@ -3598,19 +3598,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.03977197577197577</v>
+        <v>0.04044757644757645</v>
       </c>
       <c r="C31">
-        <v>0.01089202689202689</v>
+        <v>0.01282329682329682</v>
       </c>
       <c r="D31">
-        <v>-0.008544212544212544</v>
+        <v>-0.008006720006720007</v>
       </c>
       <c r="E31">
-        <v>0.03767782967782968</v>
+        <v>0.03344684144684144</v>
       </c>
       <c r="F31">
-        <v>0.0005823125823125824</v>
+        <v>-0.0004410964410964411</v>
       </c>
       <c r="G31">
         <v>-0.008985632985632985</v>
@@ -3702,19 +3702,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.03408627408627408</v>
+        <v>-0.01763645363645364</v>
       </c>
       <c r="C32">
-        <v>-0.006187878187878188</v>
+        <v>0.0007199167199167199</v>
       </c>
       <c r="D32">
-        <v>0.03013734613734614</v>
+        <v>0.02944595344595344</v>
       </c>
       <c r="E32">
-        <v>0.08393147993147994</v>
+        <v>0.08044727644727645</v>
       </c>
       <c r="F32">
-        <v>-0.03704323304323304</v>
+        <v>-0.03434663834663835</v>
       </c>
       <c r="G32">
         <v>0.01893771093771094</v>
@@ -3806,19 +3806,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.01845756645756646</v>
+        <v>-0.03991313191313191</v>
       </c>
       <c r="C33">
-        <v>-0.1581067101067101</v>
+        <v>-0.1628555828555829</v>
       </c>
       <c r="D33">
-        <v>-0.02621937821937822</v>
+        <v>-0.02298943098943099</v>
       </c>
       <c r="E33">
-        <v>-0.1277531597531598</v>
+        <v>-0.1321237081237081</v>
       </c>
       <c r="F33">
-        <v>0.01073601473601474</v>
+        <v>0.009173217173217172</v>
       </c>
       <c r="G33">
         <v>0.0009374649374649374</v>
@@ -3910,19 +3910,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.04195324195324195</v>
+        <v>0.04281689481689482</v>
       </c>
       <c r="C34">
-        <v>-0.2352097032097032</v>
+        <v>-0.2326357486357486</v>
       </c>
       <c r="D34">
-        <v>0.0376952656952657</v>
+        <v>0.0484985884985885</v>
       </c>
       <c r="E34">
-        <v>-0.02265836265836266</v>
+        <v>-0.0252031332031332</v>
       </c>
       <c r="F34">
-        <v>-0.02801662001662002</v>
+        <v>-0.02698980298980299</v>
       </c>
       <c r="G34">
         <v>-0.01662877662877663</v>
